--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2014_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2014_top_box_office.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Guardians of the Galaxy</t>
+          <t>American Sniper</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$332,934,626</t>
+          <t>$350,126,372</t>
         </is>
       </c>
     </row>
@@ -465,223 +465,223 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$313,282,914</t>
+          <t>$337,135,885</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Captain America: The Winter Soldier</t>
+          <t>Guardians of the Galaxy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$259,766,572</t>
+          <t>$333,176,600</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Lego Movie</t>
+          <t>Captain America: The Winter Soldier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$257,760,692</t>
+          <t>$259,766,572</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Transformers: Age of Extinction</t>
+          <t>The Lego Movie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$245,439,076</t>
+          <t>$257,760,692</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Maleficent</t>
+          <t>The Hobbit: The Battle of the Five Armies</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$241,410,378</t>
+          <t>$255,119,788</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>X-Men: Days of Future Past</t>
+          <t>Transformers: Age of Extinction</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$233,921,534</t>
+          <t>$245,439,076</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dawn of the Planet of the Apes</t>
+          <t>Maleficent</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$208,545,589</t>
+          <t>$241,410,378</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Big Hero 6</t>
+          <t>X-Men: Days of Future Past</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$204,576,654</t>
+          <t>$233,921,534</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Amazing Spider-Man 2</t>
+          <t>Big Hero 6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$202,853,933</t>
+          <t>$222,527,828</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Godzilla</t>
+          <t>Dawn of the Planet of the Apes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$200,676,069</t>
+          <t>$208,545,589</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22 Jump Street</t>
+          <t>The Amazing Spider-Man 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$191,719,337</t>
+          <t>$202,853,933</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Teenage Mutant Ninja Turtles</t>
+          <t>Godzilla</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$191,204,754</t>
+          <t>$200,676,069</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Hobbit: The Battle of the Five Armies</t>
+          <t>22 Jump Street</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$189,549,326</t>
+          <t>$191,719,337</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>Teenage Mutant Ninja Turtles</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$179,387,895</t>
+          <t>$191,204,754</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>How to Train Your Dragon 2</t>
+          <t>Interstellar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$177,002,924</t>
+          <t>$188,020,017</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gone Girl</t>
+          <t>How to Train Your Dragon 2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$166,197,583</t>
+          <t>$177,002,924</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Divergent</t>
+          <t>Gone Girl</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$150,947,895</t>
+          <t>$167,767,189</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Neighbors</t>
+          <t>Divergent</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$150,157,400</t>
+          <t>$150,947,895</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Frozen</t>
+          <t>Neighbors</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$137,645,361</t>
+          <t>$150,157,400</t>
         </is>
       </c>
     </row>
@@ -712,24 +712,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Into the Woods</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$126,663,600</t>
+          <t>$128,002,372</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lone Survivor</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$124,907,273</t>
+          <t>$126,663,600</t>
         </is>
       </c>
     </row>
@@ -748,204 +748,204 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mr. Peabody &amp; Sherman</t>
+          <t>Unbroken</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$111,506,430</t>
+          <t>$115,637,895</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>300: Rise of an Empire</t>
+          <t>Night at the Museum: Secret of the Tomb</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$106,580,051</t>
+          <t>$113,746,621</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>The Maze Runner</t>
+          <t>Mr. Peabody &amp; Sherman</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$102,104,191</t>
+          <t>$111,506,430</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Noah</t>
+          <t>300: Rise of an Empire</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$101,200,044</t>
+          <t>$106,580,051</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The Equalizer</t>
+          <t>The Maze Runner</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$100,915,604</t>
+          <t>$102,427,862</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Edge of Tomorrow</t>
+          <t>The Equalizer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$100,206,256</t>
+          <t>$101,530,738</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Non-Stop</t>
+          <t>Noah</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$92,168,600</t>
+          <t>$101,200,044</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Heaven Is for Real</t>
+          <t>Edge of Tomorrow</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$91,443,253</t>
+          <t>$100,206,256</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fury</t>
+          <t>Non-Stop</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$85,244,339</t>
+          <t>$92,168,600</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dumb and Dumber To</t>
+          <t>Heaven Is for Real</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$84,966,865</t>
+          <t>$91,443,253</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>The Imitation Game</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$84,525,432</t>
+          <t>$91,125,683</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Annabelle</t>
+          <t>Dumb and Dumber To</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$84,273,813</t>
+          <t>$86,208,010</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The Other Woman</t>
+          <t>Annie</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$83,911,193</t>
+          <t>$85,911,262</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>American Hustle</t>
+          <t>Fury</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$82,599,283</t>
+          <t>$85,817,906</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Let's Be Cops</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$82,390,774</t>
+          <t>$84,525,432</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The Monuments Men</t>
+          <t>Annabelle</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$78,031,620</t>
+          <t>$84,273,813</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Wolf of Wall Street</t>
+          <t>The Other Woman</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$75,451,759</t>
+          <t>$83,911,193</t>
         </is>
       </c>
     </row>
@@ -957,103 +957,103 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$74,028,222</t>
+          <t>$83,850,911</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hercules</t>
+          <t>Let's Be Cops</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$72,688,614</t>
+          <t>$82,390,774</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Purge: Anarchy</t>
+          <t>The Monuments Men</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$71,962,800</t>
+          <t>$78,031,620</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Night at the Museum: Secret of the Tomb</t>
+          <t>Hercules</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$69,354,582</t>
+          <t>$72,688,614</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alexander and the Terrible, Horrible, No Good, Very Bad Day</t>
+          <t>The Purge: Anarchy</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$65,641,801</t>
+          <t>$71,962,800</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Think Like a Man Too</t>
+          <t>Alexander and the Terrible, Horrible, No Good, Very Bad Day</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$65,182,182</t>
+          <t>$66,954,149</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Nut Job</t>
+          <t>Think Like a Man Too</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$64,251,541</t>
+          <t>$65,182,182</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Into the Woods</t>
+          <t>Exodus: Gods and Kings</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$64,062,104</t>
+          <t>$65,014,513</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Unbroken</t>
+          <t>The Nut Job</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$62,528,610</t>
+          <t>$64,251,541</t>
         </is>
       </c>
     </row>
@@ -1084,24 +1084,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Planes: Fire &amp; Rescue</t>
+          <t>The Grand Budapest Hotel</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$59,165,787</t>
+          <t>$59,301,324</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The Grand Budapest Hotel</t>
+          <t>Planes: Fire &amp; Rescue</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$59,076,019</t>
+          <t>$59,165,787</t>
         </is>
       </c>
     </row>
@@ -1120,1728 +1120,1728 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Annie</t>
+          <t>Dracula Untold</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$56,951,920</t>
+          <t>$56,280,355</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>The Hobbit: The Desolation of Smaug</t>
+          <t>Horrible Bosses 2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$56,824,777</t>
+          <t>$54,445,357</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dracula Untold</t>
+          <t>The Hundred-Foot Journey</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$55,991,880</t>
+          <t>$54,240,821</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Exodus: Gods and Kings</t>
+          <t>No Good Deed</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$55,727,340</t>
+          <t>$52,543,632</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The Hundred-Foot Journey</t>
+          <t>Selma</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$54,240,821</t>
+          <t>$52,076,908</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>No Good Deed</t>
+          <t>Muppets Most Wanted</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$52,651,326</t>
+          <t>$51,183,113</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Horrible Bosses 2</t>
+          <t>Ouija</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$51,745,425</t>
+          <t>$50,856,010</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Muppets Most Wanted</t>
+          <t>The Boxtrolls</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$51,183,113</t>
+          <t>$50,837,305</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ouija</t>
+          <t>Jack Ryan: Shadow Recruit</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$50,856,010</t>
+          <t>$50,577,412</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jack Ryan: Shadow Recruit</t>
+          <t>If I Stay</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$50,577,412</t>
+          <t>$50,474,843</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>The Boxtrolls</t>
+          <t>The Book of Life</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$50,503,155</t>
+          <t>$50,151,543</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>If I Stay</t>
+          <t>About Last Night</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$50,474,843</t>
+          <t>$48,637,684</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Book of Life</t>
+          <t>Into the Storm</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$49,323,100</t>
+          <t>$47,602,194</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>About Last Night</t>
+          <t>The Judge</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$48,637,684</t>
+          <t>$47,119,388</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Into the Storm</t>
+          <t>Jersey Boys</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$47,602,194</t>
+          <t>$47,047,013</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jersey Boys</t>
+          <t>Blended</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$47,047,013</t>
+          <t>$46,294,610</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Judge</t>
+          <t>The Giver</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$47,003,241</t>
+          <t>$45,090,374</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Blended</t>
+          <t>St. Vincent</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$46,294,610</t>
+          <t>$44,137,712</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>The Giver</t>
+          <t>Need for Speed</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$45,090,374</t>
+          <t>$43,577,636</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Need for Speed</t>
+          <t>A Million Ways to Die in the West</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$43,577,636</t>
+          <t>$43,139,300</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A Million Ways to Die in the West</t>
+          <t>John Wick</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$43,139,300</t>
+          <t>$43,037,835</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>St. Vincent</t>
+          <t>Birdman or (The Unexpected Virtue of Ignorance)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$42,845,277</t>
+          <t>$42,340,598</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>John Wick</t>
+          <t>Dolphin Tale 2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$42,820,432</t>
+          <t>$42,024,533</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Dolphin Tale 2</t>
+          <t>The Expendables 3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$42,024,533</t>
+          <t>$39,322,544</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>The Expendables 3</t>
+          <t>Earth to Echo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$39,322,544</t>
+          <t>$38,934,842</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Saving Mr. Banks</t>
+          <t>Sex Tape</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$39,214,111</t>
+          <t>$38,543,473</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Earth to Echo</t>
+          <t>Wild</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$38,934,842</t>
+          <t>$37,880,356</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sex Tape</t>
+          <t>Million Dollar Arm</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$38,543,473</t>
+          <t>$36,457,627</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>August: Osage County</t>
+          <t>The Theory of Everything</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$37,484,719</t>
+          <t>$35,893,537</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Million Dollar Arm</t>
+          <t>This Is Where I Leave You</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$36,457,627</t>
+          <t>$34,296,320</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Anchorman 2: The Legend Continues</t>
+          <t>The Gambler</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$34,588,600</t>
+          <t>$33,680,992</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>This Is Where I Leave You</t>
+          <t>Paranormal Activity: The Marked Ones</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$34,296,320</t>
+          <t>$32,462,372</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Paranormal Activity: The Marked Ones</t>
+          <t>Nightcrawler</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$32,462,372</t>
+          <t>$32,381,217</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nightcrawler</t>
+          <t>Chef</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$31,825,147</t>
+          <t>$31,424,003</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Chef</t>
+          <t>Get on Up</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$31,424,003</t>
+          <t>$30,703,100</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Get on Up</t>
+          <t>3 Days to Kill</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$30,703,100</t>
+          <t>$30,697,999</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3 Days to Kill</t>
+          <t>Deliver Us from Evil</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$30,697,999</t>
+          <t>$30,577,122</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Deliver Us from Evil</t>
+          <t>When the Game Stands Tall</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$30,577,122</t>
+          <t>$30,127,963</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>When the Game Stands Tall</t>
+          <t>Draft Day</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$30,127,963</t>
+          <t>$28,842,237</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The Hunger Games: Catching Fire</t>
+          <t>Oculus</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$29,141,342</t>
+          <t>$27,695,246</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Draft Day</t>
+          <t>The Best of Me</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$28,842,237</t>
+          <t>$26,766,213</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Oculus</t>
+          <t>A Walk Among the Tombstones</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$27,695,246</t>
+          <t>$26,307,600</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>The Secret Life of Walter Mitty</t>
+          <t>That Awkward Moment</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$26,752,507</t>
+          <t>$26,068,955</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Best of Me</t>
+          <t>Boyhood</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$26,703,582</t>
+          <t>$25,352,281</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A Walk Among the Tombstones</t>
+          <t>Top Five</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$26,307,600</t>
+          <t>$25,317,471</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>That Awkward Moment</t>
+          <t>The November Man</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$26,068,955</t>
+          <t>$25,018,119</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The November Man</t>
+          <t>Endless Love</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$25,018,119</t>
+          <t>$23,438,250</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Birdman or (The Unexpected Virtue of Ignorance)</t>
+          <t>Pompeii</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$24,273,045</t>
+          <t>$23,219,748</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Boyhood</t>
+          <t>Transcendence</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$24,242,779</t>
+          <t>$23,022,309</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Her</t>
+          <t>As Above, So Below</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$23,761,722</t>
+          <t>$21,321,100</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Endless Love</t>
+          <t>Brick Mansions</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$23,438,250</t>
+          <t>$20,396,829</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The Theory of Everything</t>
+          <t>I, Frankenstein</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$23,233,800</t>
+          <t>$19,075,290</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Pompeii</t>
+          <t>The Legend of Hercules</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$23,219,748</t>
+          <t>$18,848,538</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Transcendence</t>
+          <t>Bears</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$23,022,309</t>
+          <t>$17,780,194</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>As Above, So Below</t>
+          <t>Addicted</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$21,321,100</t>
+          <t>$17,390,770</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Top Five</t>
+          <t>A Haunted House 2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$20,407,608</t>
+          <t>$17,329,486</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Philomena</t>
+          <t>A Most Wanted Man</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$20,397,945</t>
+          <t>$17,237,855</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Brick Mansions</t>
+          <t>Begin Again</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$20,396,829</t>
+          <t>$16,170,632</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>The Imitation Game</t>
+          <t>The Single Moms Club</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$19,936,519</t>
+          <t>$15,973,881</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wild</t>
+          <t>Devil's Due</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$19,742,647</t>
+          <t>$15,821,461</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>And So It Goes</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$19,231,476</t>
+          <t>$15,160,801</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>I, Frankenstein</t>
+          <t>Step Up All In</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$19,075,290</t>
+          <t>$14,904,384</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>The Gambler</t>
+          <t>Beyond the Lights</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$18,880,856</t>
+          <t>$14,618,727</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>The Legend of Hercules</t>
+          <t>Big Eyes</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$18,848,538</t>
+          <t>$14,482,031</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>12 Years a Slave</t>
+          <t>America: Imagine the World Without Her</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$18,720,622</t>
+          <t>$14,444,502</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Bears</t>
+          <t>Left Behind</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$17,780,194</t>
+          <t>$14,019,924</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Addicted</t>
+          <t>Sin City: A Dame to Kill For</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$17,390,770</t>
+          <t>$13,757,804</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A Haunted House 2</t>
+          <t>Labor Day</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$17,329,486</t>
+          <t>$13,371,528</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A Most Wanted Man</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$17,237,855</t>
+          <t>$13,092,000</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Begin Again</t>
+          <t>Winter's Tale</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$16,170,632</t>
+          <t>$12,600,231</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>The Single Moms Club</t>
+          <t>Foxcatcher</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$15,973,881</t>
+          <t>$12,096,300</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Devil's Due</t>
+          <t>Island of Lemurs: Madagascar</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$15,821,461</t>
+          <t>$11,272,213</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>And So It Goes</t>
+          <t>Belle</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$15,160,801</t>
+          <t>$10,726,630</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Step Up All In</t>
+          <t>The Drop</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$14,904,384</t>
+          <t>$10,724,389</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Beyond the Lights</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$14,537,635</t>
+          <t>$10,616,104</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>47 Ronin</t>
+          <t>Magic in the Moonlight</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$14,509,700</t>
+          <t>$10,539,326</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>America: Imagine the World Without Her</t>
+          <t>Sabotage</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$14,444,502</t>
+          <t>$10,508,518</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Left Behind</t>
+          <t>Moms' Night Out</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$14,019,924</t>
+          <t>$10,429,707</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sin City: A Dame to Kill For</t>
+          <t>The Quiet Ones</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$13,757,804</t>
+          <t>$8,509,867</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Grudge Match</t>
+          <t>Legends of Oz: Dorothy's Return</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$13,567,034</t>
+          <t>$8,462,347</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Labor Day</t>
+          <t>Inherent Vice</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$13,371,528</t>
+          <t>$8,110,975</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Winter's Tale</t>
+          <t>Vampire Academy</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$12,600,231</t>
+          <t>$7,791,979</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Walking with Dinosaurs 3D</t>
+          <t>Bad Words</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$11,730,354</t>
+          <t>$7,779,614</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Cantinflas</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$11,596,814</t>
+          <t>$6,382,924</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Dallas Buyers Club</t>
+          <t>The Interview</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$11,451,072</t>
+          <t>$6,105,175</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Belle</t>
+          <t>Meet the Mormons</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$10,726,630</t>
+          <t>$6,047,363</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>The Drop</t>
+          <t>A Most Violent Year</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$10,724,389</t>
+          <t>$5,749,134</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Magic in the Moonlight</t>
+          <t>Cesar Chavez2014 Re-release</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$10,549,326</t>
+          <t>$5,571,497</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sabotage</t>
+          <t>The Skeleton Twins</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$10,508,518</t>
+          <t>$5,284,309</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Moms' Night Out</t>
+          <t>The Wind Rises</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$10,429,707</t>
+          <t>$5,209,580</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>Snowpiercer</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$8,668,996</t>
+          <t>$4,563,650</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The Quiet Ones</t>
+          <t>The Railway Man</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$8,509,867</t>
+          <t>$4,438,438</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Legends of Oz: Dorothy's Return</t>
+          <t>Dear White People</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$8,462,347</t>
+          <t>$4,404,154</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Island of Lemurs: Madagascar</t>
+          <t>The Lunchbox2013 Re-release</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$8,438,735</t>
+          <t>$4,235,151</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Inside Llewyn Davis</t>
+          <t>My Old Lady</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$8,036,391</t>
+          <t>$4,013,786</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Vampire Academy</t>
+          <t>Mr. Turner</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$7,791,979</t>
+          <t>$3,958,500</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bad Words</t>
+          <t>Ida</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$7,779,614</t>
+          <t>$3,827,060</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A Madea Christmas</t>
+          <t>Fading Gigolo</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$7,260,501</t>
+          <t>$3,769,873</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Foxcatcher</t>
+          <t>Calvary</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$6,777,120</t>
+          <t>$3,600,006</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cantinflas</t>
+          <t>Wish I Was Here</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$6,382,924</t>
+          <t>$3,591,299</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Big Eyes</t>
+          <t>Ghostbusters30th Anniversary Release</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$6,327,678</t>
+          <t>$3,580,343</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Meet the Mormons</t>
+          <t>Mommy</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$6,018,855</t>
+          <t>$3,494,070</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>What If</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$5,631,787</t>
+          <t>$3,493,000</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cesar Chavez2014 Re-release</t>
+          <t>The Grand Seduction</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$5,571,497</t>
+          <t>$3,430,018</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>The Skeleton Twins</t>
+          <t>Veronica Mars</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$5,284,309</t>
+          <t>$3,322,127</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>The Wind Rises</t>
+          <t>Before I Go to Sleep</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$5,209,580</t>
+          <t>$3,242,457</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Journey to the South Pacific</t>
+          <t>Rosewater</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$5,075,069</t>
+          <t>$3,128,941</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Obvious Child</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$4,816,453</t>
+          <t>$3,123,963</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hubble</t>
+          <t>The Trip to Italy</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$4,807,401</t>
+          <t>$2,880,537</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Snowpiercer</t>
+          <t>The Identical</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$4,563,650</t>
+          <t>$2,827,666</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>The Railway Man</t>
+          <t>The Fluffy Movie: Unity Through Laughter</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$4,438,438</t>
+          <t>$2,827,393</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Dear White People</t>
+          <t>Citizenfour</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$4,370,703</t>
+          <t>$2,800,870</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>The Lunchbox2013 Re-release</t>
+          <t>Kirk Cameron's Saving Christmas</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$4,235,151</t>
+          <t>$2,783,970</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>My Old Lady</t>
+          <t>The Pyramid</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$3,990,825</t>
+          <t>$2,756,333</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Fading Gigolo</t>
+          <t>The Good Lie</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$3,769,873</t>
+          <t>$2,722,209</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Thor: The Dark World</t>
+          <t>The Raid 2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$3,710,408</t>
+          <t>$2,627,209</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Ida</t>
+          <t>Under the Skin</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$3,704,612</t>
+          <t>$2,614,251</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Calvary</t>
+          <t>The Admiral: Roaring Currents</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$3,600,006</t>
+          <t>$2,589,811</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wish I Was Here</t>
+          <t>Dragon Ball Z: Battle of Gods</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$3,591,299</t>
+          <t>$2,553,002</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ghostbusters30th Anniversary Release</t>
+          <t>Bang Bang</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$3,580,343</t>
+          <t>$2,546,172</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>The Interview</t>
+          <t>Kick</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$3,552,778</t>
+          <t>$2,472,695</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>What If</t>
+          <t>Kill the Messenger</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$3,493,000</t>
+          <t>$2,450,846</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>The Grand Seduction</t>
+          <t>The Homesman</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$3,430,018</t>
+          <t>$2,429,989</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Veronica Mars</t>
+          <t>Ode to My Father</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$3,322,127</t>
+          <t>$2,300,121</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Mommy</t>
+          <t>Love Is Strange2014 Re-release</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$3,298,280</t>
+          <t>$2,262,223</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>The Book Thief</t>
+          <t>2 States</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$3,273,749</t>
+          <t>$2,238,174</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Before I Go to Sleep</t>
+          <t>Le Week-End</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$3,242,457</t>
+          <t>$2,225,098</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Rosewater</t>
+          <t>Anchorman 2: The Legend ContinuesR-Rated Extended Cut</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$3,125,746</t>
+          <t>$2,184,339</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Obvious Child</t>
+          <t>The Oscar Nominated Short Films 2014: Live Action</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$3,123,963</t>
+          <t>$2,171,849</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mandela: Long Walk to Freedom</t>
+          <t>Words and Pictures</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$3,086,965</t>
+          <t>$2,171,257</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cloudy with a Chance of Meatballs 2</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$2,936,113</t>
+          <t>$2,107,925</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>The Trip to Italy</t>
+          <t>The Immigrant</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$2,880,537</t>
+          <t>$2,025,328</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>The Identical</t>
+          <t>Only Lovers Left Alive</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$2,827,666</t>
+          <t>$1,879,534</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>The Fluffy Movie: Unity Through Laughter</t>
+          <t>Tusk</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$2,827,393</t>
+          <t>$1,826,705</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Kirk Cameron's Saving Christmas</t>
+          <t>Tim's Vermeer</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$2,783,970</t>
+          <t>$1,671,377</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>The Good Lie</t>
+          <t>Persecuted</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$2,702,251</t>
+          <t>$1,558,836</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>The Pyramid</t>
+          <t>Awake: The Life of Yogananda</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$2,692,919</t>
+          <t>$1,539,680</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Space Station 3D</t>
+          <t>Fed Up</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$2,672,152</t>
+          <t>$1,538,899</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>The Raid 2</t>
+          <t>Finding Vivian Maier</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$2,627,209</t>
+          <t>$1,514,782</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Under the Skin</t>
+          <t>Pride</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$2,614,251</t>
+          <t>$1,446,634</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>The Admiral: Roaring Currents</t>
+          <t>Two Days, One Night</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$2,589,811</t>
+          <t>$1,436,243</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Dragon Ball Z: Battle of Gods</t>
+          <t>Locke</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$2,553,002</t>
+          <t>$1,375,769</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Bang Bang</t>
+          <t>Gimme Shelter</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$2,546,172</t>
+          <t>$1,359,910</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kick</t>
+          <t>Force Majeure</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$2,472,695</t>
+          <t>$1,359,497</t>
         </is>
       </c>
     </row>
